--- a/biology/Zoologie/María_Elena_Galiano/María_Elena_Galiano.xlsx
+++ b/biology/Zoologie/María_Elena_Galiano/María_Elena_Galiano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mar%C3%ADa_Elena_Galiano</t>
+          <t>María_Elena_Galiano</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">María Elena Galiano, née en avril 1928 et morte en octobre 2000, est une arachnologiste argentine. Elle a été l'une des principales taxonomistes des salticides  néotropicale[1]. Galiano a travaillé au muséum des sciences naturelles Bernardino Rivadavia à Buenos Aires[2]. Elle est morte dans un accident, le 30 octobre 2000[3],[4],[5]. Le genre Galianora est nommé en son honneur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">María Elena Galiano, née en avril 1928 et morte en octobre 2000, est une arachnologiste argentine. Elle a été l'une des principales taxonomistes des salticides  néotropicale. Galiano a travaillé au muséum des sciences naturelles Bernardino Rivadavia à Buenos Aires. Elle est morte dans un accident, le 30 octobre 2000. Le genre Galianora est nommé en son honneur.
 </t>
         </is>
       </c>
